--- a/Garage sale.xlsx
+++ b/Garage sale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="348">
   <si>
     <t>Nº de Codigo</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Talle</t>
   </si>
   <si>
-    <t xml:space="preserve">Precio </t>
+    <t>Precio</t>
   </si>
   <si>
     <t>Imagen del producto</t>
@@ -1054,15 +1054,17 @@
   </si>
   <si>
     <t xml:space="preserve">Remera </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JRprproAp7-dqOjmJ0ujrOhPWzpR2PkF/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1175,7 +1177,7 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4522,6 +4524,9 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" s="7">
+        <v>127.0</v>
+      </c>
       <c r="B134" s="7" t="s">
         <v>345</v>
       </c>
@@ -4532,10 +4537,13 @@
         <v>346</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="F134" s="16">
-        <v>2.0</v>
+        <v>2000.0</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4667,7 +4675,8 @@
     <hyperlink r:id="rId124" ref="G131"/>
     <hyperlink r:id="rId125" ref="G132"/>
     <hyperlink r:id="rId126" ref="G133"/>
+    <hyperlink r:id="rId127" ref="G134"/>
   </hyperlinks>
-  <drawing r:id="rId127"/>
+  <drawing r:id="rId128"/>
 </worksheet>
 </file>
--- a/Garage sale.xlsx
+++ b/Garage sale.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja 1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Hoja 1'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1062,40 +1066,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="9"/>
+      <color rgb="FF1f1f1f"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1103,104 +1110,148 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
+        <fgColor rgb="FF38761d"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF6D9EEB"/>
+        <fgColor rgb="FF6d9eeb"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFea9999"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1227,22 +1278,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,3429 +1365,6021 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.0"/>
-    <col customWidth="1" min="7" max="7" width="122.0"/>
-    <col customWidth="1" min="8" max="8" width="37.25"/>
+    <col min="1" max="1" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="61.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="122.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8">
-        <v>45000.0</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10">
+        <v>45000</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8">
-        <v>55000.0</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="10">
+        <v>55000</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8">
-        <v>55000.0</v>
+      <c r="F5" s="10">
+        <v>55000</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8">
-        <v>30000.0</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="8">
-        <v>35000.0</v>
+      <c r="F15" s="10">
+        <v>35000</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="8">
-        <v>26000.0</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="10">
+        <v>26000</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="13">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="8">
-        <v>30000.0</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6">
-        <v>22.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6">
-        <v>24.0</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="8">
-        <v>50000.0</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="10">
+        <v>50000</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="8">
-        <v>25000.0</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6">
-        <v>26.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="8">
-        <v>35000.0</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="10">
+        <v>35000</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6">
-        <v>27.0</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="8">
+        <v>27</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="8">
-        <v>22000.0</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="10">
+        <v>22000</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="8">
-        <v>25000.0</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6">
-        <v>29.0</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="8">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
-        <v>31.0</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6">
-        <v>32.0</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="8">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6">
-        <v>33.0</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="8">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="8">
-        <v>25000.0</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="8">
-        <v>70000.0</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="10">
+        <v>70000</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="8">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="8">
-        <v>35000.0</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="10">
+        <v>35000</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6">
-        <v>36.0</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="8">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="8">
-        <v>35000.0</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="10">
+        <v>35000</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="7">
-        <v>37.0</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="8">
-        <v>35000.0</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="10">
+        <v>35000</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6">
-        <v>38.0</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="8">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6">
-        <v>39.0</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="8">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="F44" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6">
-        <v>41.0</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="8">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="10">
+        <v>20000</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="6">
-        <v>42.0</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="8">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="F46" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7">
-        <v>43.0</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="F47" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6">
-        <v>44.0</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="8">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="8">
-        <v>25000.0</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="F48" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="8">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7">
-        <v>46.0</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6">
-        <v>47.0</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="8">
+        <v>47</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="8">
-        <v>12000.0</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="10">
+        <v>12000</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
-        <v>48.0</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="8">
+        <v>48</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="F52" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7">
-        <v>49.0</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="13">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G53" s="9" t="s">
+      <c r="F53" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="8">
+        <v>50</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G54" s="9" t="s">
+      <c r="F54" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6">
-        <v>51.0</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="8">
+        <v>51</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="F55" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7">
-        <v>52.0</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="13">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="F56" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6">
-        <v>53.0</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="8">
+        <v>53</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6">
-        <v>54.0</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="8">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G58" s="9" t="s">
+      <c r="F58" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="13">
+        <v>55</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G59" s="9" t="s">
+      <c r="F59" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6">
-        <v>56.0</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="8">
+        <v>56</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G60" s="9" t="s">
+      <c r="F60" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6">
-        <v>57.0</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="8">
+        <v>57</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="G61" s="9" t="s">
+      <c r="F61" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7">
-        <v>58.0</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="13">
+        <v>58</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="F62" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="8">
+        <v>59</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="F63" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="8">
+        <v>60</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="G64" s="9" t="s">
+      <c r="F64" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="7">
-        <v>61.0</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="13">
+        <v>61</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="8">
+        <v>62</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F66" s="8">
-        <v>2500.0</v>
-      </c>
-      <c r="G66" s="9" t="s">
+      <c r="F66" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="6">
-        <v>63.0</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="8">
+        <v>63</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="G67" s="9" t="s">
+      <c r="F67" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="6">
-        <v>64.0</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="8">
+        <v>64</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="8">
-        <v>30000.0</v>
-      </c>
-      <c r="G69" s="9" t="s">
+      <c r="F69" s="10">
+        <v>30000</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6">
-        <v>65.0</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="8">
+        <v>65</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="F70" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="7">
-        <v>66.0</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="13">
+        <v>66</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G71" s="9" t="s">
+      <c r="F71" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="6">
-        <v>67.0</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="8">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G72" s="9" t="s">
+      <c r="F72" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="6">
-        <v>68.0</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="8">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G73" s="9" t="s">
+      <c r="F73" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7">
-        <v>69.0</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="13">
+        <v>69</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F74" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G74" s="9" t="s">
+      <c r="F74" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="8">
+        <v>70</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G75" s="9" t="s">
+      <c r="F75" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="6">
-        <v>71.0</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="8">
+        <v>71</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F76" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="F76" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7">
-        <v>72.0</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="13">
+        <v>72</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="F77" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="6">
-        <v>73.0</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="8">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="8">
-        <v>18000.0</v>
-      </c>
-      <c r="G78" s="9" t="s">
+      <c r="F78" s="10">
+        <v>18000</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6">
-        <v>74.0</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="8">
+        <v>74</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F79" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="F79" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="13">
+        <v>75</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F80" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G80" s="9" t="s">
+      <c r="F80" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="6">
-        <v>76.0</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="8">
+        <v>76</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="F81" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="F81" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="6">
-        <v>77.0</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="8">
+        <v>77</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F82" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="F82" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="7">
-        <v>78.0</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="13">
+        <v>78</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F83" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G83" s="9" t="s">
+      <c r="F83" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="6">
-        <v>79.0</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="8">
+        <v>79</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F84" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G84" s="9" t="s">
+      <c r="F84" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="6">
-        <v>80.0</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="8">
+        <v>80</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G85" s="9" t="s">
+      <c r="F85" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="7">
-        <v>81.0</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="13">
+        <v>81</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F86" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G86" s="9" t="s">
+      <c r="F86" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="6">
-        <v>82.0</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="8">
+        <v>82</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="8">
-        <v>1000.0</v>
-      </c>
-      <c r="G87" s="9" t="s">
+      <c r="F87" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="6">
-        <v>83.0</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="8">
+        <v>83</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F88" s="8">
-        <v>2500.0</v>
-      </c>
-      <c r="G88" s="9" t="s">
+      <c r="F88" s="10">
+        <v>2500</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="7">
-        <v>84.0</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="13">
+        <v>84</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F89" s="8">
-        <v>2000.0</v>
-      </c>
-      <c r="G89" s="9" t="s">
+      <c r="F89" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="7">
-        <v>85.0</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="13">
+        <v>85</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F90" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="G90" s="9" t="s">
+      <c r="F90" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="6">
-        <v>86.0</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="8">
+        <v>86</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G91" s="9" t="s">
+      <c r="F91" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G91" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="6">
-        <v>87.0</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="8">
+        <v>87</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F92" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G92" s="9" t="s">
+      <c r="F92" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7">
-        <v>88.0</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="13">
+        <v>88</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F93" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G93" s="9" t="s">
+      <c r="F93" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G93" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="6">
-        <v>89.0</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="8">
+        <v>89</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F94" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G94" s="9" t="s">
+      <c r="F94" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="6">
-        <v>90.0</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="8">
+        <v>90</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F95" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G95" s="9" t="s">
+      <c r="F95" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="7">
-        <v>91.0</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="13">
+        <v>91</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G96" s="9" t="s">
+      <c r="F96" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="6">
-        <v>92.0</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="8">
+        <v>92</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="8">
-        <v>100000.0</v>
-      </c>
-      <c r="G98" s="9" t="s">
+      <c r="F98" s="10">
+        <v>100000</v>
+      </c>
+      <c r="G98" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="6">
-        <v>93.0</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="8">
+        <v>93</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F99" s="8">
-        <v>65000.0</v>
-      </c>
-      <c r="G99" s="9" t="s">
+      <c r="F99" s="10">
+        <v>65000</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="14"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="14"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="14"/>
-      <c r="Y100" s="14"/>
-      <c r="Z100" s="14"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="14"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="6">
-        <v>94.0</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+      <c r="Z100" s="16"/>
+      <c r="AA100" s="16"/>
+      <c r="AB100" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="8">
+        <v>94</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F101" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G101" s="9" t="s">
+      <c r="F101" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="6">
-        <v>95.0</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="8">
+        <v>95</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F102" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G102" s="9" t="s">
+      <c r="F102" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="7">
-        <v>96.0</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="13">
+        <v>96</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F103" s="8">
-        <v>25000.0</v>
-      </c>
-      <c r="G103" s="9" t="s">
+      <c r="F103" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6">
-        <v>97.0</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="8">
+        <v>97</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="8">
-        <v>15000.0</v>
-      </c>
-      <c r="G104" s="9" t="s">
+      <c r="F104" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G104" s="11" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="6">
-        <v>98.0</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="8">
+        <v>98</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F105" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G105" s="9" t="s">
+      <c r="F105" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="13">
+        <v>99</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F106" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="F106" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="8">
+        <v>100</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F107" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G107" s="9" t="s">
+      <c r="F107" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="6">
-        <v>101.0</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="8">
+        <v>101</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F108" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G108" s="9" t="s">
+      <c r="F108" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="6">
-        <v>102.0</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="8">
+        <v>102</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F109" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G109" s="9" t="s">
+      <c r="F109" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G109" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="6">
-        <v>103.0</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="8">
+        <v>103</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F110" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G110" s="9" t="s">
+      <c r="F110" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="7">
-        <v>104.0</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="13">
+        <v>104</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F111" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G111" s="9" t="s">
+      <c r="F111" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="6">
-        <v>105.0</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="8">
+        <v>105</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F112" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G112" s="9" t="s">
+      <c r="F112" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="6">
-        <v>106.0</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="8">
+        <v>106</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F113" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G113" s="9" t="s">
+      <c r="F113" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G113" s="11" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="7">
-        <v>107.0</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="13">
+        <v>107</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F114" s="8">
-        <v>10000.0</v>
-      </c>
-      <c r="G114" s="9" t="s">
+      <c r="F114" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G114" s="11" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="6">
-        <v>108.0</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="8">
+        <v>108</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F115" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="G115" s="9" t="s">
+      <c r="F115" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="6">
-        <v>109.0</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="8">
+        <v>109</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F116" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G116" s="9" t="s">
+      <c r="F116" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="7">
-        <v>110.0</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="13">
+        <v>110</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F117" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G117" s="9" t="s">
+      <c r="F117" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G117" s="11" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="6">
-        <v>111.0</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="8">
+        <v>111</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F118" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G118" s="9" t="s">
+      <c r="F118" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="8">
+        <v>112</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F119" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G119" s="9" t="s">
+      <c r="F119" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G119" s="11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="7">
-        <v>113.0</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="13">
+        <v>113</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F120" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G120" s="9" t="s">
+      <c r="F120" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G120" s="11" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="8">
+        <v>114</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F121" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G121" s="9" t="s">
+      <c r="F121" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="8">
+        <v>115</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F122" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="G122" s="9" t="s">
+      <c r="F122" s="10">
+        <v>7000</v>
+      </c>
+      <c r="G122" s="11" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="8">
+        <v>116</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F123" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G123" s="9" t="s">
+      <c r="F123" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G123" s="11" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="7">
-        <v>117.0</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="13">
+        <v>117</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F124" s="8">
-        <v>12000.0</v>
-      </c>
-      <c r="G124" s="9" t="s">
+      <c r="F124" s="10">
+        <v>12000</v>
+      </c>
+      <c r="G124" s="11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="6">
-        <v>118.0</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="8">
+        <v>118</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F125" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G125" s="9" t="s">
+      <c r="F125" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G125" s="11" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="8">
+        <v>119</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F126" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="G126" s="9" t="s">
+      <c r="F126" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G126" s="11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="6">
-        <v>120.0</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="12"/>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="8">
+        <v>120</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F127" s="8">
-        <v>4500.0</v>
-      </c>
-      <c r="G127" s="9" t="s">
+      <c r="F127" s="10">
+        <v>4500</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="7">
-        <v>121.0</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="12"/>
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="13">
+        <v>121</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F128" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G128" s="9" t="s">
+      <c r="F128" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G128" s="11" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="6">
-        <v>122.0</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="12"/>
+      <c r="Y128" s="12"/>
+      <c r="Z128" s="12"/>
+      <c r="AA128" s="12"/>
+      <c r="AB128" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="8">
+        <v>122</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F129" s="8">
-        <v>4000.0</v>
-      </c>
-      <c r="G129" s="9" t="s">
+      <c r="F129" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="6">
-        <v>123.0</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="12"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="12"/>
+      <c r="AA129" s="12"/>
+      <c r="AB129" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="8">
+        <v>123</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F130" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="G130" s="9" t="s">
+      <c r="F130" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="7">
-        <v>124.0</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="12"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="12"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="12"/>
+      <c r="AA130" s="12"/>
+      <c r="AB130" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="13">
+        <v>124</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F131" s="8">
-        <v>2500.0</v>
-      </c>
-      <c r="G131" s="9" t="s">
+      <c r="F131" s="10">
+        <v>2500</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="6">
-        <v>125.0</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="8">
+        <v>125</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F132" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="G132" s="9" t="s">
+      <c r="F132" s="10">
+        <v>6000</v>
+      </c>
+      <c r="G132" s="11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="6">
-        <v>126.0</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="8">
+        <v>126</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F133" s="8">
-        <v>3000.0</v>
-      </c>
-      <c r="G133" s="9" t="s">
+      <c r="F133" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G133" s="11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="7">
-        <v>127.0</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="12"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="12"/>
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="13">
+        <v>127</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F134" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="G134" s="9" t="s">
+      <c r="F134" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G134" s="11" t="s">
         <v>347</v>
       </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="12"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="12"/>
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$1"/>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
-    <hyperlink r:id="rId5" ref="G7"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId7" ref="G10"/>
-    <hyperlink r:id="rId8" ref="G11"/>
-    <hyperlink r:id="rId9" ref="G12"/>
-    <hyperlink r:id="rId10" ref="G13"/>
-    <hyperlink r:id="rId11" ref="G14"/>
-    <hyperlink r:id="rId12" ref="G15"/>
-    <hyperlink r:id="rId13" ref="G16"/>
-    <hyperlink r:id="rId14" ref="G17"/>
-    <hyperlink r:id="rId15" ref="G18"/>
-    <hyperlink r:id="rId16" ref="G19"/>
-    <hyperlink r:id="rId17" ref="G20"/>
-    <hyperlink r:id="rId18" ref="G21"/>
-    <hyperlink r:id="rId19" ref="G22"/>
-    <hyperlink r:id="rId20" ref="G23"/>
-    <hyperlink r:id="rId21" ref="G24"/>
-    <hyperlink r:id="rId22" ref="G25"/>
-    <hyperlink r:id="rId23" ref="G26"/>
-    <hyperlink r:id="rId24" ref="G28"/>
-    <hyperlink r:id="rId25" ref="G29"/>
-    <hyperlink r:id="rId26" ref="G30"/>
-    <hyperlink r:id="rId27" ref="G31"/>
-    <hyperlink r:id="rId28" ref="G32"/>
-    <hyperlink r:id="rId29" ref="G33"/>
-    <hyperlink r:id="rId30" ref="G34"/>
-    <hyperlink r:id="rId31" ref="G35"/>
-    <hyperlink r:id="rId32" ref="G36"/>
-    <hyperlink r:id="rId33" ref="G37"/>
-    <hyperlink r:id="rId34" ref="G38"/>
-    <hyperlink r:id="rId35" ref="G39"/>
-    <hyperlink r:id="rId36" ref="G40"/>
-    <hyperlink r:id="rId37" ref="G41"/>
-    <hyperlink r:id="rId38" ref="G42"/>
-    <hyperlink r:id="rId39" ref="G43"/>
-    <hyperlink r:id="rId40" ref="G44"/>
-    <hyperlink r:id="rId41" ref="G45"/>
-    <hyperlink r:id="rId42" ref="G46"/>
-    <hyperlink r:id="rId43" ref="G47"/>
-    <hyperlink r:id="rId44" ref="G48"/>
-    <hyperlink r:id="rId45" ref="G49"/>
-    <hyperlink r:id="rId46" ref="G50"/>
-    <hyperlink r:id="rId47" ref="G51"/>
-    <hyperlink r:id="rId48" ref="G52"/>
-    <hyperlink r:id="rId49" ref="G53"/>
-    <hyperlink r:id="rId50" ref="G54"/>
-    <hyperlink r:id="rId51" ref="G55"/>
-    <hyperlink r:id="rId52" ref="G56"/>
-    <hyperlink r:id="rId53" ref="G57"/>
-    <hyperlink r:id="rId54" ref="G58"/>
-    <hyperlink r:id="rId55" ref="G59"/>
-    <hyperlink r:id="rId56" ref="G60"/>
-    <hyperlink r:id="rId57" ref="G61"/>
-    <hyperlink r:id="rId58" ref="G62"/>
-    <hyperlink r:id="rId59" ref="G63"/>
-    <hyperlink r:id="rId60" ref="G64"/>
-    <hyperlink r:id="rId61" ref="G65"/>
-    <hyperlink r:id="rId62" ref="G66"/>
-    <hyperlink r:id="rId63" ref="G67"/>
-    <hyperlink r:id="rId64" ref="G69"/>
-    <hyperlink r:id="rId65" ref="G70"/>
-    <hyperlink r:id="rId66" ref="G71"/>
-    <hyperlink r:id="rId67" ref="G72"/>
-    <hyperlink r:id="rId68" ref="G73"/>
-    <hyperlink r:id="rId69" ref="G74"/>
-    <hyperlink r:id="rId70" ref="G75"/>
-    <hyperlink r:id="rId71" ref="G76"/>
-    <hyperlink r:id="rId72" ref="G77"/>
-    <hyperlink r:id="rId73" ref="G78"/>
-    <hyperlink r:id="rId74" ref="G79"/>
-    <hyperlink r:id="rId75" ref="G80"/>
-    <hyperlink r:id="rId76" ref="G81"/>
-    <hyperlink r:id="rId77" ref="G82"/>
-    <hyperlink r:id="rId78" ref="G83"/>
-    <hyperlink r:id="rId79" ref="G84"/>
-    <hyperlink r:id="rId80" ref="G85"/>
-    <hyperlink r:id="rId81" ref="G86"/>
-    <hyperlink r:id="rId82" ref="G87"/>
-    <hyperlink r:id="rId83" ref="G88"/>
-    <hyperlink r:id="rId84" ref="G89"/>
-    <hyperlink r:id="rId85" ref="G90"/>
-    <hyperlink r:id="rId86" ref="G91"/>
-    <hyperlink r:id="rId87" ref="G92"/>
-    <hyperlink r:id="rId88" ref="G93"/>
-    <hyperlink r:id="rId89" ref="G94"/>
-    <hyperlink r:id="rId90" ref="G95"/>
-    <hyperlink r:id="rId91" ref="G96"/>
-    <hyperlink r:id="rId92" ref="G98"/>
-    <hyperlink r:id="rId93" ref="G99"/>
-    <hyperlink r:id="rId94" ref="G101"/>
-    <hyperlink r:id="rId95" ref="G102"/>
-    <hyperlink r:id="rId96" ref="G103"/>
-    <hyperlink r:id="rId97" ref="G104"/>
-    <hyperlink r:id="rId98" ref="G105"/>
-    <hyperlink r:id="rId99" ref="G106"/>
-    <hyperlink r:id="rId100" ref="G107"/>
-    <hyperlink r:id="rId101" ref="G108"/>
-    <hyperlink r:id="rId102" ref="G109"/>
-    <hyperlink r:id="rId103" ref="G110"/>
-    <hyperlink r:id="rId104" ref="G111"/>
-    <hyperlink r:id="rId105" ref="G112"/>
-    <hyperlink r:id="rId106" ref="G113"/>
-    <hyperlink r:id="rId107" ref="G114"/>
-    <hyperlink r:id="rId108" ref="G115"/>
-    <hyperlink r:id="rId109" ref="G116"/>
-    <hyperlink r:id="rId110" ref="G117"/>
-    <hyperlink r:id="rId111" ref="G118"/>
-    <hyperlink r:id="rId112" ref="G119"/>
-    <hyperlink r:id="rId113" ref="G120"/>
-    <hyperlink r:id="rId114" ref="G121"/>
-    <hyperlink r:id="rId115" ref="G122"/>
-    <hyperlink r:id="rId116" ref="G123"/>
-    <hyperlink r:id="rId117" ref="G124"/>
-    <hyperlink r:id="rId118" ref="G125"/>
-    <hyperlink r:id="rId119" ref="G126"/>
-    <hyperlink r:id="rId120" ref="G127"/>
-    <hyperlink r:id="rId121" ref="G128"/>
-    <hyperlink r:id="rId122" ref="G129"/>
-    <hyperlink r:id="rId123" ref="G130"/>
-    <hyperlink r:id="rId124" ref="G131"/>
-    <hyperlink r:id="rId125" ref="G132"/>
-    <hyperlink r:id="rId126" ref="G133"/>
-    <hyperlink r:id="rId127" ref="G134"/>
-  </hyperlinks>
-  <drawing r:id="rId128"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>